--- a/BING690 HW & TESTS/Assigment 9 Rafael Villasmil BINF690 Fall 2020.xlsx
+++ b/BING690 HW & TESTS/Assigment 9 Rafael Villasmil BINF690 Fall 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parent/Documents/BINF690 Numerical Methods in Bioinformatics Fall 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villasmilr\Documents\GitHub\Assignments BINF690\BING690 HW &amp; TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ED1C5C-5D0B-C44D-8C46-6F8FF03AB99D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13CA6B9-9440-42A7-B52A-AADF0C9510F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="8060" windowWidth="38400" windowHeight="21940" activeTab="1" xr2:uid="{4F9ADFAA-A9EB-455D-AB5F-55483A1F78A2}"/>
+    <workbookView xWindow="46680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4F9ADFAA-A9EB-455D-AB5F-55483A1F78A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Eigenvalue Root calculation" sheetId="1" r:id="rId1"/>
@@ -490,34 +490,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6F6AB-CFE4-4E7C-B63E-70B974071EEF}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="20.33203125" style="3"/>
+    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="20.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -591,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -668,7 +668,7 @@
         <v>-196.875</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>1.282051282051282E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>A3+1</f>
         <v>3</v>
@@ -864,7 +864,7 @@
         <v>6.3291139240506328E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A18" si="24">A4+1</f>
         <v>4</v>
@@ -962,7 +962,7 @@
         <v>3.1446540880503146E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="24"/>
         <v>5</v>
@@ -1060,7 +1060,7 @@
         <v>1.567398119122257E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="24"/>
         <v>6</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" si="15"/>
-        <v>-0.38521194458007812</v>
+        <v>-0.38521194458007813</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="16"/>
@@ -1158,7 +1158,7 @@
         <v>7.8492935635792783E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="24"/>
         <v>7</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="O8" s="3">
         <f t="shared" si="14"/>
-        <v>-0.38521194458007812</v>
+        <v>-0.38521194458007813</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="15"/>
@@ -1256,7 +1256,7 @@
         <v>3.9277297721916735E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="24"/>
         <v>8</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O9" s="3">
         <f t="shared" si="14"/>
-        <v>-0.38521194458007812</v>
+        <v>-0.38521194458007813</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="15"/>
@@ -1354,7 +1354,7 @@
         <v>1.9646365422396856E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="24"/>
         <v>9</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="O10" s="3">
         <f t="shared" si="14"/>
-        <v>-0.38521194458007812</v>
+        <v>-0.38521194458007813</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="15"/>
@@ -1452,7 +1452,7 @@
         <v>9.8212531919072876E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="24"/>
         <v>10</v>
@@ -1550,7 +1550,7 @@
         <v>4.9111089283960316E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="24"/>
         <v>11</v>
@@ -1648,7 +1648,7 @@
         <v>2.4556750650753894E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="24"/>
         <v>12</v>
@@ -1746,7 +1746,7 @@
         <v>1.2278073815779781E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="24"/>
         <v>13</v>
@@ -1844,7 +1844,7 @@
         <v>6.1391122843636807E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="24"/>
         <v>14</v>
@@ -1942,7 +1942,7 @@
         <v>3.0695372979477076E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="24"/>
         <v>15</v>
@@ -2040,7 +2040,7 @@
         <v>1.5347639379587026E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="24"/>
         <v>16</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="V17" s="3">
         <f t="shared" si="19"/>
-        <v>19.884231567382812</v>
+        <v>19.884231567382813</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="20"/>
@@ -2138,7 +2138,7 @@
         <v>7.6738079123098625E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="24"/>
         <v>17</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="5"/>
-        <v>-7.1784744262695312</v>
+        <v>-7.1784744262695313</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="6"/>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="T18" s="3">
         <f t="shared" si="17"/>
-        <v>19.884231567382812</v>
+        <v>19.884231567382813</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" si="18"/>
@@ -2236,7 +2236,7 @@
         <v>3.8369069005235842E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" ref="A19:A29" si="27">A18+1</f>
         <v>18</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" si="4"/>
-        <v>-7.1784744262695312</v>
+        <v>-7.1784744262695313</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="5"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="T19" s="3">
         <f t="shared" si="17"/>
-        <v>19.884231567382812</v>
+        <v>19.884231567382813</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="18"/>
@@ -2334,7 +2334,7 @@
         <v>1.9184527141693464E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="27"/>
         <v>19</v>
@@ -2432,7 +2432,7 @@
         <v>9.5922654110774936E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="27"/>
         <v>20</v>
@@ -2530,7 +2530,7 @@
         <v>4.7961322454810124E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="27"/>
         <v>21</v>
@@ -2628,7 +2628,7 @@
         <v>2.3980662377549342E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="27"/>
         <v>22</v>
@@ -2726,7 +2726,7 @@
         <v>1.1990331476310762E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="27"/>
         <v>23</v>
@@ -2824,7 +2824,7 @@
         <v>5.9951656662713573E-9</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="27"/>
         <v>24</v>
@@ -2922,7 +2922,7 @@
         <v>2.9975828511066845E-9</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="27"/>
         <v>25</v>
@@ -3020,7 +3020,7 @@
         <v>1.4987914210605908E-9</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="27"/>
         <v>26</v>
@@ -3118,7 +3118,7 @@
         <v>7.4939571165348321E-10</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="27"/>
         <v>27</v>
@@ -3216,7 +3216,7 @@
         <v>3.7469785554594465E-10</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="27"/>
         <v>28</v>
@@ -3314,7 +3314,7 @@
         <v>1.873489277027731E-10</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" ref="A30:A33" si="28">A29+1</f>
         <v>29</v>
@@ -3412,7 +3412,7 @@
         <v>9.367446386893635E-11</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="28"/>
         <v>30</v>
@@ -3510,7 +3510,7 @@
         <v>4.6837231930080725E-11</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="28"/>
         <v>31</v>
@@ -3576,7 +3576,7 @@
         <v>1.582567565023911E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="28"/>
         <v>32</v>
@@ -3642,7 +3642,7 @@
         <v>7.9128378125969543E-10</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" ref="A34" si="29">A33+1</f>
         <v>33</v>
@@ -3708,7 +3708,7 @@
         <v>3.9564189094291273E-10</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" ref="A35:A36" si="45">A34+1</f>
         <v>34</v>
@@ -3774,7 +3774,7 @@
         <v>1.9782094554972262E-10</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="45"/>
         <v>35</v>
@@ -3840,7 +3840,7 @@
         <v>9.8910472794427878E-11</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" ref="A37" si="61">A36+1</f>
         <v>36</v>
@@ -3920,16 +3920,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EE5275-D06B-425D-A6DE-07E7CDFE933F}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="9.1640625" style="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -3995,7 +3995,7 @@
         <v>0.88822170900692843</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A8" si="0">A4+1</f>
         <v>3</v>
@@ -4023,7 +4023,7 @@
         <v>0.38249544523979245</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4051,7 +4051,7 @@
         <v>2.8565639960968989E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4074,13 +4074,13 @@
         <v>0.29417476740835219</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>2-B7</f>
         <v>-17.88234310877484</v>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>8</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -4190,13 +4190,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>A12/$A$12</f>
         <v>1</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>A13-A17*$A$13</f>
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>A14-A17*$A$14</f>
         <v>0</v>
@@ -4324,13 +4324,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>A17</f>
         <v>1</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ref="A23:D23" si="11">A18/$B$18</f>
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>A19-A23*$B$19</f>
         <v>0</v>
@@ -4456,13 +4456,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>A22-A28*$B$22</f>
         <v>1</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
